--- a/Civilworks cost/Slope Protection/Pac- sunan-07/Segegated Estimate.xlsx
+++ b/Civilworks cost/Slope Protection/Pac- sunan-07/Segegated Estimate.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="All Abstruct" sheetId="2" r:id="rId1"/>
     <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'All Abstruct'!$A$1:$L$64</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="149">
   <si>
     <t xml:space="preserve"> Abstruct  Cost of estimate for slope protection work of the Dharmapasha Ruibeel Submergible Embankment In between  Km-0.00 to Km-1.00=0.900 km, Km. 1.030 to km.2.200 =1.1700 km.,  Km-9.200 to Km-10.350 =1.150 including 0.080 km Guide bundh construction with 4.700km. Embankment rectioning work &amp; 1 no. 30 m width Flood Fuse at km 1.00 to km. 1.030 &amp; 2 no. 15.00 m width Flood Fuse (in between km. 4.520 to km 4.570 &amp; km.35.050 to km 35.065), Total length = 3.440 km.  in Upazilla-Dharmapasha , Dist- Sunamganj in c/w " Haor Flood Management and Livelihood Improvement Project (BWDB Part)" under Sunamganj O&amp;M Division-1, BWDB, Sunamganj. (Package no. BWDB/Sunam/HFMLIP/PW-07).</t>
   </si>
@@ -530,6 +531,194 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Cement concrete work in leanest mix. 1:3:6 with sand of FM&gt;=1.5, in foundation or floor including breaking, screening, grading and washing aggregates with clear water, mixing, laying in position, consolidation to levels, curing, including supply of all materials, excluding the cost of formworks etc. complete as per direction of
+Engineer in charge.                                                                                                                  
+28-120-20 : With 25mm down graded stone chips.</t>
+  </si>
+  <si>
+    <t>Formwork for centering and water tight shuttering as per drawing with14 BWG M.S. sheet, fitted and fixed with 40mmx40mmx6mm M.S. angle frame and 25mmx6mm F.I. bar stiffener, with necessary fabrication, welding, making the forms including fitting, fixing of steel forms with necessary ties, battens, struts, nuts &amp; bolts, props etc. as per desired shape and size including levelling and removing the forms after specified period including the cost of all materials as per direction of Engineer in charg.                                                                                                                   36-150-10: Vertical and inclined walls, columns, piers with 60-80mm dia barrackbamboo props.</t>
+  </si>
+  <si>
+    <t>M.S. Work for reinforcement with deformed M.S. bar, fy=400 N/mm², (made from billet) in RCC works, including local handling, cutting, forging, bending, cleaning and fabrication with supply of deformed M.S. bar in different sizes and binding with 22 to 18 gages G.I. wire etc. complete including the cost of all materials as per direction of Engineer in charge.                                                                                          
+ 76-120-10 : 8mm dia to 30mm dia.</t>
+  </si>
+  <si>
+    <t>Single brick flat soling including preparation of bed, sand filling (FM&gt;=0.50), levelling, dressing and sand blinding in foundation or floor with supply of all materials etc. complete and as per direction of Engineer in charge                                                                                                       
+20-100-10: With 1st class bricks</t>
+  </si>
+  <si>
+    <t>Reinforced cement concrete work in leanest mix. 1:1.5:3, with 20mm down graded coarse aggregates and sand of FM&gt;2.0 to FM&lt;=2.5, to attain a minimum 28 day cylinder strength of 22.0 N/mm², including breaking, screening, grading, washing aggregates with clean water, mixing, laying in forms, consolidation to levels, curing, including supply of all materials, excluding cost of M.S. work for
+reinforcements and formworks etc. complete and as per direction of Engineer in charge.                                                                                                                    28-200-10 : with stone chips.consolidation to levels, curing, including supply of all materials, excluding cost of M.S. work for reinforcements and formworks etc. complete and as per direction of Engineer in charge.                                                                                                                        
+28-200-10 : With stone chips.</t>
+  </si>
+  <si>
+    <t>Earth work by manual labour in constructing/ resectioning of embankment / canal bank/ road etc. compacted to 85%/90% maximum dry density at optimum moisture content, with reference to laboratory density test AAHSTO modified hammer, with clayey soil(minm 30% clay, 0-40% silt, 0-30% sand) within the initial lead of 30m and all lifts including throwing the spoils to profiles in layers not exceeding 230mm in thickness with clod breaking to a maximum size of 100mm, benching the side slopes, removing roots and stumps of trees of girth upto 200mm from the ground, stripping/ ploughing the base of embankment and borrow pit area, dug bailing, bail out of water, rough dressing including 150mm cambering at the centre of crest etc. complete, including maintenance of the same for 6 months after completion, (compaction will be done by the contractor with approved equipment, including all ancillary charges for compaction and testing) as per direction of Engineer in charge.
+16-120-10 . 0 m to 3 m height with 85% compaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra Rate for Carriage of Dredged earth/ Excavated earth or shifting of earth by dump truck including loading, unloading complete as per direction of Engineer in charge.
+16-430-10 . Carriage by Dump Truck: Up to 1.0 km </t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>04-180</t>
+  </si>
+  <si>
+    <t>16-100</t>
+  </si>
+  <si>
+    <t>16-450</t>
+  </si>
+  <si>
+    <t>16-220</t>
+  </si>
+  <si>
+    <t>16-240</t>
+  </si>
+  <si>
+    <t>16-510</t>
+  </si>
+  <si>
+    <t>16-180</t>
+  </si>
+  <si>
+    <t>16-160</t>
+  </si>
+  <si>
+    <t>16-170</t>
+  </si>
+  <si>
+    <t>40-550</t>
+  </si>
+  <si>
+    <t>40-500</t>
+  </si>
+  <si>
+    <t>28-120</t>
+  </si>
+  <si>
+    <t>36-150</t>
+  </si>
+  <si>
+    <t>76-120</t>
+  </si>
+  <si>
+    <t>20-100</t>
+  </si>
+  <si>
+    <t>28-200</t>
+  </si>
+  <si>
+    <t>16-120</t>
+  </si>
+  <si>
+    <t>48-100</t>
+  </si>
+  <si>
+    <t>16-470</t>
+  </si>
+  <si>
+    <t>16-430</t>
+  </si>
+  <si>
+    <t>Site Cleanup</t>
+  </si>
+  <si>
+    <t>Bamboo Profile</t>
+  </si>
+  <si>
+    <t>Earth work by Manual Labor</t>
+  </si>
+  <si>
+    <t>Earth Work by Carried Earth</t>
+  </si>
+  <si>
+    <t>Earth Work by Mechanical Excavator</t>
+  </si>
+  <si>
+    <t>Excavation of Foundation Trenches</t>
+  </si>
+  <si>
+    <t>Royaltiy for Specfied</t>
+  </si>
+  <si>
+    <t>Additional Lift</t>
+  </si>
+  <si>
+    <t>Additional Lead</t>
+  </si>
+  <si>
+    <t>Sand Filter</t>
+  </si>
+  <si>
+    <t>Geotextile Filter</t>
+  </si>
+  <si>
+    <t>40-380-20</t>
+  </si>
+  <si>
+    <t>40-380-30</t>
+  </si>
+  <si>
+    <t>Geotextile Bag 175 Kg</t>
+  </si>
+  <si>
+    <t>Geotextile Bag 125 Kg</t>
+  </si>
+  <si>
+    <t>40-530-20</t>
+  </si>
+  <si>
+    <t>Peagravels Filter 40 to 20mm</t>
+  </si>
+  <si>
+    <t>40-530-30</t>
+  </si>
+  <si>
+    <t>Peagravels Filter 20 to 5mm</t>
+  </si>
+  <si>
+    <t>40-190-05</t>
+  </si>
+  <si>
+    <t>40-190-06</t>
+  </si>
+  <si>
+    <t>40-190-35</t>
+  </si>
+  <si>
+    <t>40-190-40</t>
+  </si>
+  <si>
+    <t>CC Block:50cmX50CmX30Cm</t>
+  </si>
+  <si>
+    <t>CC Block:40cmX40CmX30Cm</t>
+  </si>
+  <si>
+    <t>CC Block:40cmX40CmX40Cm</t>
+  </si>
+  <si>
+    <t>CC Block:40cmX40CmX20Cm</t>
+  </si>
+  <si>
+    <t>40-190-50</t>
+  </si>
+  <si>
+    <t>CC Block:30cmX30CmX30Cm</t>
+  </si>
+  <si>
+    <t>40-270-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laying </t>
   </si>
 </sst>
 </file>
@@ -577,12 +766,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -737,17 +938,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -804,16 +996,10 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -872,6 +1058,30 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,1065 +1546,1065 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="42.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>4</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>5</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <f>'[1]All Quantity '!L5</f>
         <v>5060</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>39.76</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="51">
         <f>C4*E4</f>
         <v>201185.59999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <f>'[1]All Quantity '!L11</f>
         <v>165.6</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>370.47</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <f t="shared" ref="F5:F45" si="0">C5*E5</f>
         <v>61349.832000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <f>'[1]All Quantity '!L17</f>
         <v>5016</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>207.13</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
         <v>1038964.08</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="284.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:6" ht="284.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <f>'[1]All Quantity '!L22</f>
         <v>25741.823968000004</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <v>439.15</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
         <v>11304521.995547201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="275.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:6" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <f>'[1]All Quantity '!L28</f>
         <v>25741.823968000004</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>159.16999999999999</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
         <v>4097326.1209865604</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <f>'[1]All Quantity '!L35</f>
         <v>4910.3999999999996</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>355.3</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>1744665.1199999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="19">
         <f>'[1]All Quantity '!L42</f>
         <v>20205.073968000004</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>16.97</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>342880.10523696005</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23">
         <f>'[1]All Quantity '!L49</f>
         <v>3463.25</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="25">
         <v>61.86</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="23">
         <f t="shared" si="0"/>
         <v>214236.64499999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="25" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="28">
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="23">
         <f>'[1]All Quantity '!L56</f>
         <v>3463.25</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="25">
         <v>32</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="23">
         <f t="shared" si="0"/>
         <v>110824</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="31">
         <f>'[1]All Quantity '!L63</f>
         <v>1315.7990800000002</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <v>1082.67</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="12">
         <f t="shared" si="0"/>
         <v>1424576.1899436004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <f>'[1]All Quantity '!L70</f>
         <v>59362.428490000013</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <v>255.08</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="12">
         <f t="shared" si="0"/>
         <v>15142168.259229204</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="285.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:6" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="14">
         <f>'[1]All Quantity '!L77</f>
         <v>7430.7818900343636</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>433.62</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="12">
         <f t="shared" si="0"/>
         <v>3222135.6431567008</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="37" t="s">
+    <row r="18" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="10">
         <f>'[1]All Quantity '!L83</f>
         <v>22368.444444444445</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="12">
         <v>335.32</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="12">
         <f t="shared" si="0"/>
         <v>7500586.7911111116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="14">
         <f>'[1]All Quantity '!L90</f>
         <v>810.19533200000012</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="11">
         <v>4572.72</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="12">
         <f t="shared" si="0"/>
         <v>3704796.3985430407</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="37" t="s">
+    <row r="20" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="14">
         <f>C19</f>
         <v>810.19533200000012</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="11">
         <v>4451.5200000000004</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="12">
         <f t="shared" si="0"/>
         <v>3606600.7243046407</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:6" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="14">
         <f>'[1]All Quantity '!L104</f>
         <v>5295.2999999999993</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <v>1646.08</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="12">
         <f t="shared" si="0"/>
         <v>8716487.4239999987</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="37" t="s">
+    <row r="22" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="33">
         <f>'[1]All Quantity '!L111</f>
         <v>10135.523627999999</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="11">
         <v>1006.89</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="12">
         <f t="shared" si="0"/>
         <v>10205357.385796919</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="37" t="s">
+    <row r="23" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="33">
         <f>'[1]All Quantity '!L118</f>
         <v>0</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="11">
         <v>660.71</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="37" t="s">
+    <row r="24" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="33">
         <f>'[1]All Quantity '!L124</f>
         <v>8925.8437499999982</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <v>859.69</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="12">
         <f t="shared" si="0"/>
         <v>7673458.6134374989</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="37" t="s">
+    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="33">
         <f>'[1]All Quantity '!L131</f>
         <v>46827.034287500006</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="11">
         <v>441.92</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="12">
         <f t="shared" si="0"/>
         <v>20693802.992332004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="37" t="s">
+    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="33">
         <f>'[1]All Quantity '!L137</f>
         <v>18197.222222222226</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="11">
         <v>367.69</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="12">
         <f t="shared" si="0"/>
         <v>6690936.6388888899</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="14">
         <f>'[1]All Quantity '!L143</f>
         <v>1931.6879346500002</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="11">
         <v>1452.75</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="12">
         <f t="shared" si="0"/>
         <v>2806259.6470627878</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="37" t="s">
+    <row r="28" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="14">
         <f>C27</f>
         <v>1931.6879346500002</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="12">
         <v>2275.7399999999998</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="12">
         <f t="shared" si="0"/>
         <v>4396019.5004003914</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="14">
         <f>'[1]All Quantity '!L155</f>
         <v>136.92000000000002</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="11">
         <v>12391.66</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="12">
         <f t="shared" si="0"/>
         <v>1696666.0872000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+    <row r="30" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="10">
         <f>'[1]All Quantity '!L161</f>
         <v>354.70799999999997</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="11">
         <v>1187.98</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="12">
         <f t="shared" si="0"/>
         <v>421386.00983999996</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
+    <row r="31" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="14">
         <f>'[1]All Quantity '!L167</f>
         <v>428.01719999999995</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="11">
         <v>103.13</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="12">
         <f t="shared" si="0"/>
         <v>44141.413835999992</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
+    <row r="32" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="10">
         <f>'[1]All Quantity '!L173</f>
         <v>6</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="11">
         <v>467.54</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="12">
         <f t="shared" si="0"/>
         <v>2805.2400000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="204" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
+    <row r="33" spans="1:11" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="14">
         <f>'[1]All Quantity '!L179</f>
         <v>3.7085220000000003</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="11">
         <v>14016.51</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="12">
         <f t="shared" si="0"/>
         <v>51980.535698220003</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="274.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
+    <row r="34" spans="1:11" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="10">
         <f>'[1]All Quantity '!L185</f>
         <v>3463.25</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="12">
         <v>254.66</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="12">
         <f t="shared" si="0"/>
         <v>881951.245</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
+    <row r="35" spans="1:11" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="10">
         <f>'[1]All Quantity '!L192</f>
         <v>106121.79999999999</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="11">
         <v>33.94</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="12">
         <f t="shared" si="0"/>
         <v>3601773.8919999995</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
+    <row r="36" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="10">
         <f>'[1]All Quantity '!L198</f>
         <v>13012.800000000001</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="11">
         <v>207.19</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="12">
         <f t="shared" si="0"/>
         <v>2696122.0320000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
+    <row r="37" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="10">
         <f>'[1]All Quantity '!L203</f>
         <v>9000</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="11">
         <v>85.33</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="12">
         <f t="shared" si="0"/>
         <v>767970</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40" t="s">
+    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:11" ht="170.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:11" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="14">
         <v>1</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="11">
         <v>967050.85</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="12">
         <f t="shared" si="0"/>
         <v>967050.85</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="14">
         <v>1</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="11">
         <v>967050.85</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="12">
         <f t="shared" ref="K39:K45" si="1">H39*J39</f>
         <v>967050.85</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41" t="s">
+    <row r="40" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="10">
         <v>1</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="11">
         <v>111148.95</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="12">
         <f t="shared" si="0"/>
         <v>111148.95</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="10">
         <v>1</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="11">
         <v>111148.95</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="12">
         <f t="shared" si="1"/>
         <v>111148.95</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41" t="s">
+    <row r="41" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="10">
         <v>1</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="11">
         <v>110909.92</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="12">
         <f t="shared" si="0"/>
         <v>110909.92</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="10">
         <v>1</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="11">
         <v>110909.92</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K41" s="12">
         <f t="shared" si="1"/>
         <v>110909.92</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41" t="s">
+    <row r="42" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="14">
         <v>120</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="11">
         <v>2497.86</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="12">
         <f t="shared" si="0"/>
         <v>299743.2</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="14">
         <v>120</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="I42" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="11">
         <v>2497.86</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K42" s="12">
         <f t="shared" si="1"/>
         <v>299743.2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
+    <row r="43" spans="1:11" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="10">
         <v>1</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="11">
         <v>92026.55</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="12">
         <f t="shared" si="0"/>
         <v>92026.55</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="10">
         <v>1</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="11">
         <v>92026.55</v>
       </c>
-      <c r="K43" s="15">
+      <c r="K43" s="12">
         <f t="shared" si="1"/>
         <v>92026.55</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41" t="s">
+    <row r="44" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="10">
         <v>1</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="12">
         <v>112344.1</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="12">
         <f t="shared" si="0"/>
         <v>112344.1</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="10">
         <v>1</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="12">
         <v>112344.1</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K44" s="12">
         <f t="shared" si="1"/>
         <v>112344.1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="38">
         <v>1</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="44">
+      <c r="E45" s="39">
         <v>250000</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="12">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="H45" s="43">
+      <c r="H45" s="38">
         <v>1</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="J45" s="44">
+      <c r="J45" s="39">
         <v>250000</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="12">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="47" t="s">
+    <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="K46" s="48">
+      <c r="K46" s="43">
         <f>SUM(K39:K45)</f>
         <v>1943223.57</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F47" s="48">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F47" s="43">
         <f>SUM(F4:F46)</f>
         <v>127007159.73255175</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="49"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="48"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="48"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="48"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="49"/>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="44"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="43"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="43"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="43"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2402,7 +2612,10 @@
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="6" max="63" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -2414,8 +2627,794 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="94.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="50" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="50"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="50">
+        <v>5060</v>
+      </c>
+      <c r="F2">
+        <v>39.76</v>
+      </c>
+      <c r="G2">
+        <v>201185.59999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="50">
+        <v>165.6</v>
+      </c>
+      <c r="F3">
+        <v>370.47</v>
+      </c>
+      <c r="G3">
+        <v>61349.832000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="50">
+        <v>5016</v>
+      </c>
+      <c r="F4">
+        <v>207.13</v>
+      </c>
+      <c r="G4">
+        <v>1038964.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="50">
+        <v>25741.823968000004</v>
+      </c>
+      <c r="F5">
+        <v>439.15</v>
+      </c>
+      <c r="G5">
+        <v>11304521.995547201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="50">
+        <v>25741.823968000004</v>
+      </c>
+      <c r="F6">
+        <v>159.16999999999999</v>
+      </c>
+      <c r="G6">
+        <v>4097326.1209865604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="50">
+        <v>4910.3999999999996</v>
+      </c>
+      <c r="F7">
+        <v>355.3</v>
+      </c>
+      <c r="G7">
+        <v>1744665.1199999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="50">
+        <v>20205.073968000004</v>
+      </c>
+      <c r="F8">
+        <v>16.97</v>
+      </c>
+      <c r="G8">
+        <v>342880.10523696005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="50">
+        <v>3463.25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="50">
+        <v>3463.25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="50">
+        <v>1315.7990800000002</v>
+      </c>
+      <c r="F11">
+        <v>1082.67</v>
+      </c>
+      <c r="G11">
+        <v>1424576.1899436004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="50">
+        <v>59362.428490000013</v>
+      </c>
+      <c r="F12">
+        <v>255.08</v>
+      </c>
+      <c r="G12">
+        <v>15142168.259229204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="50">
+        <v>7430.7818900343636</v>
+      </c>
+      <c r="F13">
+        <v>433.62</v>
+      </c>
+      <c r="G13">
+        <v>3222135.6431567008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="50">
+        <v>810.19533200000012</v>
+      </c>
+      <c r="F15">
+        <v>4572.72</v>
+      </c>
+      <c r="G15">
+        <v>3704796.3985430407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="50">
+        <v>810.19533200000012</v>
+      </c>
+      <c r="F16">
+        <v>4451.5200000000004</v>
+      </c>
+      <c r="G16">
+        <v>3606600.7243046407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="50">
+        <v>5295.2999999999993</v>
+      </c>
+      <c r="F17">
+        <v>1646.08</v>
+      </c>
+      <c r="G17">
+        <v>8716487.4239999987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="50">
+        <v>10135.523627999999</v>
+      </c>
+      <c r="F18">
+        <v>1006.89</v>
+      </c>
+      <c r="G18">
+        <v>10205357.385796919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="50">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>660.71</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="50">
+        <v>8925.8437499999982</v>
+      </c>
+      <c r="F20">
+        <v>859.69</v>
+      </c>
+      <c r="G20">
+        <v>7673458.6134374989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="50">
+        <v>46827.034287500006</v>
+      </c>
+      <c r="F21">
+        <v>441.92</v>
+      </c>
+      <c r="G21">
+        <v>20693802.992332004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="50">
+        <v>1931.6879346500002</v>
+      </c>
+      <c r="F22">
+        <v>1452.75</v>
+      </c>
+      <c r="G22">
+        <v>2806259.6470627878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="50">
+        <v>1931.6879346500002</v>
+      </c>
+      <c r="F23">
+        <v>2275.7399999999998</v>
+      </c>
+      <c r="G23">
+        <v>4396019.5004003914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="50">
+        <v>136.92000000000002</v>
+      </c>
+      <c r="F24">
+        <v>12391.66</v>
+      </c>
+      <c r="G24">
+        <v>1696666.0872000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="50">
+        <v>354.70799999999997</v>
+      </c>
+      <c r="F25">
+        <v>1187.98</v>
+      </c>
+      <c r="G25">
+        <v>421386.00983999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="50">
+        <v>428.01719999999995</v>
+      </c>
+      <c r="F26">
+        <v>103.13</v>
+      </c>
+      <c r="G26">
+        <v>44141.413835999992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="50">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>467.54</v>
+      </c>
+      <c r="G27">
+        <v>2805.2400000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="50">
+        <v>3.7085220000000003</v>
+      </c>
+      <c r="F28">
+        <v>14016.51</v>
+      </c>
+      <c r="G28">
+        <v>51980.535698220003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="50">
+        <v>3463.25</v>
+      </c>
+      <c r="F29">
+        <v>254.66</v>
+      </c>
+      <c r="G29">
+        <v>881951.245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="50">
+        <v>106121.79999999999</v>
+      </c>
+      <c r="F30">
+        <v>33.94</v>
+      </c>
+      <c r="G30">
+        <v>3601773.8919999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="50">
+        <v>13012.800000000001</v>
+      </c>
+      <c r="F31">
+        <v>207.19</v>
+      </c>
+      <c r="G31">
+        <v>2696122.0320000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" s="50">
+        <v>9000</v>
+      </c>
+      <c r="F32">
+        <v>85.33</v>
+      </c>
+      <c r="G32">
+        <v>767970</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="50">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>967050.85</v>
+      </c>
+      <c r="G34">
+        <v>967050.85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="50">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>111148.95</v>
+      </c>
+      <c r="G35">
+        <v>111148.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="50">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>110909.92</v>
+      </c>
+      <c r="G36">
+        <v>110909.92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="50">
+        <v>120</v>
+      </c>
+      <c r="F37">
+        <v>2497.86</v>
+      </c>
+      <c r="G37">
+        <v>299743.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="50">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>92026.55</v>
+      </c>
+      <c r="G38">
+        <v>92026.55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="50">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>112344.1</v>
+      </c>
+      <c r="G39">
+        <v>112344.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="50">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>250000</v>
+      </c>
+      <c r="G40">
+        <v>250000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Civilworks cost/Slope Protection/Pac- sunan-07/Segegated Estimate.xlsx
+++ b/Civilworks cost/Slope Protection/Pac- sunan-07/Segegated Estimate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="All Abstruct" sheetId="2" r:id="rId1"/>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="149">
   <si>
-    <t xml:space="preserve"> Abstruct  Cost of estimate for slope protection work of the Dharmapasha Ruibeel Submergible Embankment In between  Km-0.00 to Km-1.00=0.900 km, Km. 1.030 to km.2.200 =1.1700 km.,  Km-9.200 to Km-10.350 =1.150 including 0.080 km Guide bundh construction with 4.700km. Embankment rectioning work &amp; 1 no. 30 m width Flood Fuse at km 1.00 to km. 1.030 &amp; 2 no. 15.00 m width Flood Fuse (in between km. 4.520 to km 4.570 &amp; km.35.050 to km 35.065), Total length = 3.440 km.  in Upazilla-Dharmapasha , Dist- Sunamganj in c/w " Haor Flood Management and Livelihood Improvement Project (BWDB Part)" under Sunamganj O&amp;M Division-1, BWDB, Sunamganj. (Package no. BWDB/Sunam/HFMLIP/PW-07).</t>
-  </si>
-  <si>
     <t>Sl No./ Code no</t>
   </si>
   <si>
@@ -719,6 +716,9 @@
   </si>
   <si>
     <t xml:space="preserve">Laying </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abstract  Cost of estimate for slope protection work of the Dharmapasha Ruibeel Submergible Embankment In between  Km-0.00 to Km-1.00=0.900 km, Km. 1.030 to km.2.200 =1.1700 km.,  Km-9.200 to Km-10.350 =1.150 including 0.080 km Guide bundh construction with 4.700km. Embankment rectioning work &amp; 1 no. 30 m width Flood Fuse at km 1.00 to km. 1.030 &amp; 2 no. 15.00 m width Flood Fuse (in between km. 4.520 to km 4.570 &amp; km.35.050 to km 35.065), Total length = 3.440 km.  in Upazilla-Dharmapasha , Dist- Sunamganj in c/w " Haor Flood Management and Livelihood Improvement Project (BWDB Part)" under Sunamganj O&amp;M Division-1, BWDB, Sunamganj. (Package no. BWDB/Sunam/HFMLIP/PW-07).</t>
   </si>
 </sst>
 </file>
@@ -766,18 +766,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1058,6 +1052,12 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1073,15 +1073,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1546,52 +1540,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:6" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+    </row>
+    <row r="2" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-    </row>
-    <row r="2" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1611,41 +1605,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="10">
         <f>'[1]All Quantity '!L5</f>
         <v>5060</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="11">
         <v>39.76</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="54">
         <f>C4*E4</f>
         <v>201185.59999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="14">
         <f>'[1]All Quantity '!L11</f>
         <v>165.6</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="11">
         <v>370.47</v>
@@ -1655,19 +1649,19 @@
         <v>61349.832000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="10">
         <f>'[1]All Quantity '!L17</f>
         <v>5016</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="11">
         <v>207.13</v>
@@ -1677,19 +1671,19 @@
         <v>1038964.08</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="284.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="284.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="17">
         <f>'[1]All Quantity '!L22</f>
         <v>25741.823968000004</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="18">
         <v>439.15</v>
@@ -1699,19 +1693,19 @@
         <v>11304521.995547201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="275.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="14">
         <f>'[1]All Quantity '!L28</f>
         <v>25741.823968000004</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="12">
         <v>159.16999999999999</v>
@@ -1721,19 +1715,19 @@
         <v>4097326.1209865604</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="14">
         <f>'[1]All Quantity '!L35</f>
         <v>4910.3999999999996</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="12">
         <v>355.3</v>
@@ -1743,19 +1737,19 @@
         <v>1744665.1199999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="C10" s="19">
         <f>'[1]All Quantity '!L42</f>
         <v>20205.073968000004</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="11">
         <v>16.97</v>
@@ -1765,31 +1759,31 @@
         <v>342880.10523696005</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23">
         <f>'[1]All Quantity '!L49</f>
         <v>3463.25</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="25">
         <v>61.86</v>
@@ -1799,23 +1793,23 @@
         <v>214236.64499999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>28</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="28"/>
       <c r="E13" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
       <c r="C14" s="23">
@@ -1823,7 +1817,7 @@
         <v>3463.25</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="25">
         <v>32</v>
@@ -1833,19 +1827,19 @@
         <v>110824</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="C15" s="31">
         <f>'[1]All Quantity '!L63</f>
         <v>1315.7990800000002</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="11">
         <v>1082.67</v>
@@ -1855,19 +1849,19 @@
         <v>1424576.1899436004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="10">
         <f>'[1]All Quantity '!L70</f>
         <v>59362.428490000013</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="11">
         <v>255.08</v>
@@ -1877,19 +1871,19 @@
         <v>15142168.259229204</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="285.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="C17" s="14">
         <f>'[1]All Quantity '!L77</f>
         <v>7430.7818900343636</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="11">
         <v>433.62</v>
@@ -1899,17 +1893,17 @@
         <v>3222135.6431567008</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="10">
         <f>'[1]All Quantity '!L83</f>
         <v>22368.444444444445</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="12">
         <v>335.32</v>
@@ -1919,19 +1913,19 @@
         <v>7500586.7911111116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="C19" s="14">
         <f>'[1]All Quantity '!L90</f>
         <v>810.19533200000012</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="11">
         <v>4572.72</v>
@@ -1941,17 +1935,17 @@
         <v>3704796.3985430407</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="14">
         <f>C19</f>
         <v>810.19533200000012</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="11">
         <v>4451.5200000000004</v>
@@ -1961,19 +1955,19 @@
         <v>3606600.7243046407</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="C21" s="14">
         <f>'[1]All Quantity '!L104</f>
         <v>5295.2999999999993</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="12">
         <v>1646.08</v>
@@ -1983,17 +1977,17 @@
         <v>8716487.4239999987</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="33">
         <f>'[1]All Quantity '!L111</f>
         <v>10135.523627999999</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="11">
         <v>1006.89</v>
@@ -2003,17 +1997,17 @@
         <v>10205357.385796919</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="33">
         <f>'[1]All Quantity '!L118</f>
         <v>0</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="11">
         <v>660.71</v>
@@ -2023,17 +2017,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="33">
         <f>'[1]All Quantity '!L124</f>
         <v>8925.8437499999982</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="11">
         <v>859.69</v>
@@ -2043,17 +2037,17 @@
         <v>7673458.6134374989</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="33">
         <f>'[1]All Quantity '!L131</f>
         <v>46827.034287500006</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="11">
         <v>441.92</v>
@@ -2063,17 +2057,17 @@
         <v>20693802.992332004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="33">
         <f>'[1]All Quantity '!L137</f>
         <v>18197.222222222226</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="11">
         <v>367.69</v>
@@ -2083,19 +2077,19 @@
         <v>6690936.6388888899</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="C27" s="14">
         <f>'[1]All Quantity '!L143</f>
         <v>1931.6879346500002</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="11">
         <v>1452.75</v>
@@ -2105,17 +2099,17 @@
         <v>2806259.6470627878</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="14">
         <f>C27</f>
         <v>1931.6879346500002</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="12">
         <v>2275.7399999999998</v>
@@ -2125,19 +2119,19 @@
         <v>4396019.5004003914</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="C29" s="14">
         <f>'[1]All Quantity '!L155</f>
         <v>136.92000000000002</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="11">
         <v>12391.66</v>
@@ -2147,19 +2141,19 @@
         <v>1696666.0872000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="C30" s="10">
         <f>'[1]All Quantity '!L161</f>
         <v>354.70799999999997</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" s="11">
         <v>1187.98</v>
@@ -2169,19 +2163,19 @@
         <v>421386.00983999996</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="C31" s="14">
         <f>'[1]All Quantity '!L167</f>
         <v>428.01719999999995</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" s="11">
         <v>103.13</v>
@@ -2191,19 +2185,19 @@
         <v>44141.413835999992</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="C32" s="10">
         <f>'[1]All Quantity '!L173</f>
         <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" s="11">
         <v>467.54</v>
@@ -2213,19 +2207,19 @@
         <v>2805.2400000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="204" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="C33" s="14">
         <f>'[1]All Quantity '!L179</f>
         <v>3.7085220000000003</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="11">
         <v>14016.51</v>
@@ -2235,19 +2229,19 @@
         <v>51980.535698220003</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="274.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="C34" s="10">
         <f>'[1]All Quantity '!L185</f>
         <v>3463.25</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" s="12">
         <v>254.66</v>
@@ -2257,19 +2251,19 @@
         <v>881951.245</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="C35" s="10">
         <f>'[1]All Quantity '!L192</f>
         <v>106121.79999999999</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="11">
         <v>33.94</v>
@@ -2279,19 +2273,19 @@
         <v>3601773.8919999995</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="C36" s="10">
         <f>'[1]All Quantity '!L198</f>
         <v>13012.800000000001</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="11">
         <v>207.19</v>
@@ -2301,19 +2295,19 @@
         <v>2696122.0320000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="C37" s="10">
         <f>'[1]All Quantity '!L203</f>
         <v>9000</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" s="11">
         <v>85.33</v>
@@ -2323,28 +2317,28 @@
         <v>767970</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="34"/>
       <c r="B38" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="170.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="C39" s="14">
         <v>1</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="11">
         <v>967050.85</v>
@@ -2357,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J39" s="11">
         <v>967050.85</v>
@@ -2367,18 +2361,18 @@
         <v>967050.85</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="C40" s="10">
         <v>1</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40" s="11">
         <v>111148.95</v>
@@ -2391,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J40" s="11">
         <v>111148.95</v>
@@ -2401,18 +2395,18 @@
         <v>111148.95</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="C41" s="10">
         <v>1</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41" s="11">
         <v>110909.92</v>
@@ -2425,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J41" s="11">
         <v>110909.92</v>
@@ -2435,18 +2429,18 @@
         <v>110909.92</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="C42" s="14">
         <v>120</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E42" s="11">
         <v>2497.86</v>
@@ -2459,7 +2453,7 @@
         <v>120</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J42" s="11">
         <v>2497.86</v>
@@ -2469,18 +2463,18 @@
         <v>299743.2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E43" s="11">
         <v>92026.55</v>
@@ -2493,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J43" s="11">
         <v>92026.55</v>
@@ -2503,18 +2497,18 @@
         <v>92026.55</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="C44" s="10">
         <v>1</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44" s="12">
         <v>112344.1</v>
@@ -2527,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J44" s="12">
         <v>112344.1</v>
@@ -2537,18 +2531,18 @@
         <v>112344.1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="37" t="s">
         <v>86</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>87</v>
       </c>
       <c r="C45" s="38">
         <v>1</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="39">
         <v>250000</v>
@@ -2561,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J45" s="39">
         <v>250000</v>
@@ -2571,39 +2565,39 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K46" s="43">
         <f>SUM(K39:K45)</f>
         <v>1943223.57</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F47" s="43">
         <f>SUM(F4:F46)</f>
         <v>127007159.73255175</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="44"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="43"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="43"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="43"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="44"/>
     </row>
   </sheetData>
@@ -2612,7 +2606,7 @@
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="6" max="63" man="1"/>
   </colBreaks>
@@ -2627,7 +2621,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2637,44 +2631,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="94.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="50" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="50"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="94.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="45"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>118</v>
+      <c r="B2" s="46" t="s">
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="50">
+        <v>11</v>
+      </c>
+      <c r="D2" s="45">
         <v>5060</v>
       </c>
       <c r="F2">
@@ -2684,17 +2678,17 @@
         <v>201185.59999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>119</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="50">
+        <v>14</v>
+      </c>
+      <c r="D3" s="45">
         <v>165.6</v>
       </c>
       <c r="F3">
@@ -2704,17 +2698,17 @@
         <v>61349.832000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>120</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="50">
+        <v>14</v>
+      </c>
+      <c r="D4" s="45">
         <v>5016</v>
       </c>
       <c r="F4">
@@ -2724,17 +2718,17 @@
         <v>1038964.08</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>121</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="50">
+        <v>14</v>
+      </c>
+      <c r="D5" s="45">
         <v>25741.823968000004</v>
       </c>
       <c r="F5">
@@ -2744,17 +2738,17 @@
         <v>11304521.995547201</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>122</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="50">
+        <v>14</v>
+      </c>
+      <c r="D6" s="45">
         <v>25741.823968000004</v>
       </c>
       <c r="F6">
@@ -2764,17 +2758,17 @@
         <v>4097326.1209865604</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>123</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="50">
+        <v>14</v>
+      </c>
+      <c r="D7" s="45">
         <v>4910.3999999999996</v>
       </c>
       <c r="F7">
@@ -2784,17 +2778,17 @@
         <v>1744665.1199999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>124</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="50">
+        <v>14</v>
+      </c>
+      <c r="D8" s="45">
         <v>20205.073968000004</v>
       </c>
       <c r="F8">
@@ -2804,54 +2798,54 @@
         <v>342880.10523696005</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>126</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="50">
+        <v>14</v>
+      </c>
+      <c r="D9" s="45">
         <v>3463.25</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="50">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="45">
         <v>3463.25</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>127</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="50">
+        <v>14</v>
+      </c>
+      <c r="D11" s="45">
         <v>1315.7990800000002</v>
       </c>
       <c r="F11">
@@ -2861,17 +2855,17 @@
         <v>1424576.1899436004</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>128</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="50">
+        <v>35</v>
+      </c>
+      <c r="D12" s="45">
         <v>59362.428490000013</v>
       </c>
       <c r="F12">
@@ -2881,17 +2875,17 @@
         <v>15142168.259229204</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>131</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="50">
+        <v>35</v>
+      </c>
+      <c r="D13" s="45">
         <v>7430.7818900343636</v>
       </c>
       <c r="F13">
@@ -2901,26 +2895,26 @@
         <v>3222135.6431567008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="52" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="B15" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>134</v>
-      </c>
       <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="50">
+        <v>14</v>
+      </c>
+      <c r="D15" s="45">
         <v>810.19533200000012</v>
       </c>
       <c r="F15">
@@ -2930,17 +2924,17 @@
         <v>3704796.3985430407</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>136</v>
-      </c>
       <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="50">
+        <v>42</v>
+      </c>
+      <c r="D16" s="45">
         <v>810.19533200000012</v>
       </c>
       <c r="F16">
@@ -2950,17 +2944,17 @@
         <v>3606600.7243046407</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>141</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="50">
+        <v>35</v>
+      </c>
+      <c r="D17" s="45">
         <v>5295.2999999999993</v>
       </c>
       <c r="F17">
@@ -2970,17 +2964,17 @@
         <v>8716487.4239999987</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>142</v>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="50">
+        <v>35</v>
+      </c>
+      <c r="D18" s="45">
         <v>10135.523627999999</v>
       </c>
       <c r="F18">
@@ -2990,17 +2984,17 @@
         <v>10205357.385796919</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>143</v>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="50">
+        <v>42</v>
+      </c>
+      <c r="D19" s="45">
         <v>0</v>
       </c>
       <c r="F19">
@@ -3010,17 +3004,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>144</v>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="50">
+        <v>35</v>
+      </c>
+      <c r="D20" s="45">
         <v>8925.8437499999982</v>
       </c>
       <c r="F20">
@@ -3030,17 +3024,17 @@
         <v>7673458.6134374989</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="52" t="s">
-        <v>146</v>
-      </c>
       <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="50">
+        <v>35</v>
+      </c>
+      <c r="D21" s="45">
         <v>46827.034287500006</v>
       </c>
       <c r="F21">
@@ -3050,17 +3044,17 @@
         <v>20693802.992332004</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="53" t="s">
-        <v>148</v>
-      </c>
       <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="50">
+        <v>14</v>
+      </c>
+      <c r="D22" s="45">
         <v>1931.6879346500002</v>
       </c>
       <c r="F22">
@@ -3070,17 +3064,17 @@
         <v>2806259.6470627878</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
-        <v>147</v>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="50">
+        <v>14</v>
+      </c>
+      <c r="D23" s="45">
         <v>1931.6879346500002</v>
       </c>
       <c r="F23">
@@ -3090,17 +3084,17 @@
         <v>4396019.5004003914</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
-        <v>109</v>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="50">
+        <v>8</v>
+      </c>
+      <c r="D24" s="45">
         <v>136.92000000000002</v>
       </c>
       <c r="F24">
@@ -3110,17 +3104,17 @@
         <v>1696666.0872000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
-        <v>110</v>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="45" t="s">
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="50">
+        <v>57</v>
+      </c>
+      <c r="D25" s="45">
         <v>354.70799999999997</v>
       </c>
       <c r="F25">
@@ -3130,17 +3124,17 @@
         <v>421386.00983999996</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>111</v>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="50">
+        <v>8</v>
+      </c>
+      <c r="D26" s="45">
         <v>428.01719999999995</v>
       </c>
       <c r="F26">
@@ -3150,17 +3144,17 @@
         <v>44141.413835999992</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
-        <v>112</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="50">
+        <v>14</v>
+      </c>
+      <c r="D27" s="45">
         <v>6</v>
       </c>
       <c r="F27">
@@ -3170,17 +3164,17 @@
         <v>2805.2400000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
-        <v>113</v>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="50">
+        <v>14</v>
+      </c>
+      <c r="D28" s="45">
         <v>3.7085220000000003</v>
       </c>
       <c r="F28">
@@ -3190,17 +3184,17 @@
         <v>51980.535698220003</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
-        <v>114</v>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="45" t="s">
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="50">
+        <v>8</v>
+      </c>
+      <c r="D29" s="45">
         <v>3463.25</v>
       </c>
       <c r="F29">
@@ -3210,17 +3204,17 @@
         <v>881951.245</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
-        <v>115</v>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="45" t="s">
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="50">
+        <v>14</v>
+      </c>
+      <c r="D30" s="45">
         <v>106121.79999999999</v>
       </c>
       <c r="F30">
@@ -3230,17 +3224,17 @@
         <v>3601773.8919999995</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
-        <v>116</v>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="45" t="s">
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="50">
+        <v>14</v>
+      </c>
+      <c r="D31" s="45">
         <v>13012.800000000001</v>
       </c>
       <c r="F31">
@@ -3250,15 +3244,15 @@
         <v>2696122.0320000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
-        <v>117</v>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="45" t="s">
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32"/>
-      <c r="D32" s="50">
+      <c r="D32" s="45">
         <v>9000</v>
       </c>
       <c r="F32">
@@ -3268,26 +3262,26 @@
         <v>767970</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="45"/>
       <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
+      <c r="B34" t="s">
         <v>72</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="50">
+      <c r="D34" s="45">
         <v>1</v>
       </c>
       <c r="F34">
@@ -3297,17 +3291,17 @@
         <v>967050.85</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
         <v>75</v>
       </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
       <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="50">
+        <v>73</v>
+      </c>
+      <c r="D35" s="45">
         <v>1</v>
       </c>
       <c r="F35">
@@ -3317,17 +3311,17 @@
         <v>111148.95</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
         <v>77</v>
       </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
       <c r="C36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="50">
+        <v>80</v>
+      </c>
+      <c r="D36" s="45">
         <v>1</v>
       </c>
       <c r="F36">
@@ -3337,17 +3331,17 @@
         <v>110909.92</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
         <v>79</v>
       </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
       <c r="C37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="50">
+        <v>73</v>
+      </c>
+      <c r="D37" s="45">
         <v>120</v>
       </c>
       <c r="F37">
@@ -3357,17 +3351,17 @@
         <v>299743.2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="50" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
         <v>82</v>
       </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
       <c r="C38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="50">
+        <v>73</v>
+      </c>
+      <c r="D38" s="45">
         <v>1</v>
       </c>
       <c r="F38">
@@ -3377,17 +3371,17 @@
         <v>92026.55</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="50" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
-        <v>85</v>
-      </c>
       <c r="C39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="50">
+        <v>73</v>
+      </c>
+      <c r="D39" s="45">
         <v>1</v>
       </c>
       <c r="F39">
@@ -3397,14 +3391,14 @@
         <v>112344.1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
         <v>86</v>
       </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="50">
+      <c r="D40" s="45">
         <v>1</v>
       </c>
       <c r="F40">

--- a/Civilworks cost/Slope Protection/Pac- sunan-07/Segegated Estimate.xlsx
+++ b/Civilworks cost/Slope Protection/Pac- sunan-07/Segegated Estimate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="All Abstruct" sheetId="2" r:id="rId1"/>
@@ -1058,6 +1058,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1072,9 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1541,31 +1541,31 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="42.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:6" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-    </row>
-    <row r="2" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -1622,12 +1622,12 @@
       <c r="E4" s="11">
         <v>39.76</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="49">
         <f>C4*E4</f>
         <v>201185.59999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>61349.832000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>1038964.08</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="284.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="284.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>11304521.995547201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="275.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>4097326.1209865604</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>1744665.1199999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>21</v>
       </c>
@@ -1759,8 +1759,8 @@
         <v>342880.10523696005</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+    <row r="11" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1775,8 +1775,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23">
         <f>'[1]All Quantity '!L49</f>
@@ -1793,7 +1793,7 @@
         <v>214236.64499999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>26</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
       <c r="C14" s="23">
@@ -1827,7 +1827,7 @@
         <v>110824</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>29</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>1424576.1899436004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>31</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>15142168.259229204</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="285.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>33</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>3222135.6431567008</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="32" t="s">
         <v>36</v>
@@ -1913,7 +1913,7 @@
         <v>7500586.7911111116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>37</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>3704796.3985430407</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="32" t="s">
         <v>39</v>
@@ -1955,7 +1955,7 @@
         <v>3606600.7243046407</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>40</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>8716487.4239999987</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="32" t="s">
         <v>43</v>
@@ -1997,7 +1997,7 @@
         <v>10205357.385796919</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="32" t="s">
         <v>44</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="32" t="s">
         <v>45</v>
@@ -2037,7 +2037,7 @@
         <v>7673458.6134374989</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="32" t="s">
         <v>46</v>
@@ -2057,7 +2057,7 @@
         <v>20693802.992332004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="32" t="s">
         <v>47</v>
@@ -2077,7 +2077,7 @@
         <v>6690936.6388888899</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>48</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>2806259.6470627878</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="32" t="s">
         <v>50</v>
@@ -2119,7 +2119,7 @@
         <v>4396019.5004003914</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>51</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>1696666.0872000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>53</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>421386.00983999996</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>55</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>44141.413835999992</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
         <v>58</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>2805.2400000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="204" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="204" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>60</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>51980.535698220003</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="274.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>62</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>881951.245</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>64</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>3601773.8919999995</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
         <v>66</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>2696122.0320000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>68</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>767970</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34"/>
       <c r="B38" s="35" t="s">
         <v>70</v>
@@ -2327,7 +2327,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:11" ht="170.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
         <v>71</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>967050.85</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
         <v>74</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>111148.95</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
         <v>76</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>110909.92</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
         <v>78</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>299743.2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
         <v>81</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>92026.55</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
         <v>83</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>112344.1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -2579,25 +2579,25 @@
         <v>1943223.57</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F47" s="43">
         <f>SUM(F4:F46)</f>
         <v>127007159.73255175</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="44"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="43"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="43"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="43"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="44"/>
     </row>
   </sheetData>
@@ -2621,7 +2621,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2635,16 +2635,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="94.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="45"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="94.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="45"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>95</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>97</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>201185.59999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>98</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>61349.832000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>99</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>1038964.08</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>100</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>11304521.995547201</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>101</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>4097326.1209865604</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>102</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>1744665.1199999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>103</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>342880.10523696005</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>104</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>105</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>106</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>1424576.1899436004</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>107</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>15142168.259229204</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>128</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>3222135.6431567008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>129</v>
       </c>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>132</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>3704796.3985430407</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>134</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>3606600.7243046407</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>136</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>8716487.4239999987</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>137</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>10205357.385796919</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>138</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>139</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>7673458.6134374989</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>144</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>20693802.992332004</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>146</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>2806259.6470627878</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>146</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>4396019.5004003914</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>108</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>1696666.0872000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>109</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>421386.00983999996</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>110</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>44141.413835999992</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>111</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>2805.2400000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>112</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>51980.535698220003</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>113</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>881951.245</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>114</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>3601773.8919999995</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>115</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>2696122.0320000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>116</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>767970</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" t="s">
         <v>70</v>
@@ -3271,7 +3271,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>71</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>967050.85</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>74</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>111148.95</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>76</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>110909.92</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>78</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>299743.2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
         <v>81</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>92026.55</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
         <v>83</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>112344.1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>85</v>
       </c>
